--- a/Logistics.Converter/Templates/在庫表.xlsx
+++ b/Logistics.Converter/Templates/在庫表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="13275" windowHeight="7005" tabRatio="150"/>
+    <workbookView xWindow="1845" yWindow="4950" windowWidth="16005" windowHeight="6735" tabRatio="150"/>
   </bookViews>
   <sheets>
     <sheet name="センター在庫表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>仕入先</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>入荷予定数</t>
-  </si>
-  <si>
-    <t>不良在庫</t>
   </si>
 </sst>
 </file>
@@ -421,39 +418,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="222" zoomScaleSheetLayoutView="222" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="222" workbookViewId="0">
+      <selection activeCell="D2" sqref="A2:XFD9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="5" width="17" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
     <col min="7" max="7" width="10.75" customWidth="1"/>
-    <col min="8" max="8" width="15.125" customWidth="1"/>
-    <col min="9" max="9" width="19.5" customWidth="1"/>
-    <col min="10" max="10" width="15.125" customWidth="1"/>
-    <col min="11" max="11" width="12.875" customWidth="1"/>
+    <col min="8" max="9" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -465,13 +463,10 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
